--- a/c_sharp_ini/Book1.xlsx
+++ b/c_sharp_ini/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>data 1 is W10E028915</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>1. Replace "-" with ""</t>
+  </si>
+  <si>
+    <t>asfdasdf</t>
   </si>
 </sst>
 </file>
@@ -811,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -973,6 +976,11 @@
     <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
